--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="0" windowWidth="28780" windowHeight="25340" tabRatio="500"/>
+    <workbookView xWindow="11920" yWindow="1900" windowWidth="28580" windowHeight="17680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="136">
   <si>
     <t>sequence-ID</t>
   </si>
@@ -211,13 +211,229 @@
   </si>
   <si>
     <t>Amphibian</t>
+  </si>
+  <si>
+    <t>AY494851</t>
+  </si>
+  <si>
+    <t>Puna teal</t>
+  </si>
+  <si>
+    <t>AJ441111</t>
+  </si>
+  <si>
+    <t>CCHBV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crane hepatitis B virus </t>
+  </si>
+  <si>
+    <t>Balearica regulorum</t>
+  </si>
+  <si>
+    <t>AJ251934</t>
+  </si>
+  <si>
+    <t>STHBV</t>
+  </si>
+  <si>
+    <t>Stork hepatitis B virus</t>
+  </si>
+  <si>
+    <t>Ciconia ciconia</t>
+  </si>
+  <si>
+    <t>Nackednavirus</t>
+  </si>
+  <si>
+    <t>ACNDV</t>
+  </si>
+  <si>
+    <t>African cichild</t>
+  </si>
+  <si>
+    <t>Ophthalmotilapia ventralis</t>
+  </si>
+  <si>
+    <t>host_sci_name</t>
+  </si>
+  <si>
+    <t>host_common_name</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Nanorana parkeri</t>
+  </si>
+  <si>
+    <t>Tibetan frog</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Ardea cinerea</t>
+  </si>
+  <si>
+    <t>Grey heron</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Psittacula krameri</t>
+  </si>
+  <si>
+    <t>Rose-ringed parakeet</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Chen rossii</t>
+  </si>
+  <si>
+    <t>Ross's goose</t>
+  </si>
+  <si>
+    <t>Anser caerulescens</t>
+  </si>
+  <si>
+    <t>Snow goose</t>
+  </si>
+  <si>
+    <t>Ashy-headed sheldgoose</t>
+  </si>
+  <si>
+    <t>Sheldgoose</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eudromia elegans </t>
+  </si>
+  <si>
+    <t>Elegant crested tinamou</t>
+  </si>
+  <si>
+    <t>Spatula puna</t>
+  </si>
+  <si>
+    <t>Grey crowned crane</t>
+  </si>
+  <si>
+    <t>White stork</t>
+  </si>
+  <si>
+    <t>Lepomis macrochirus</t>
+  </si>
+  <si>
+    <t>Bluegill</t>
+  </si>
+  <si>
+    <t>Catostomus commersonii</t>
+  </si>
+  <si>
+    <t>White sucker</t>
+  </si>
+  <si>
+    <t>KX058434</t>
+  </si>
+  <si>
+    <t>African cichlid hepadnavirus</t>
+  </si>
+  <si>
+    <t>Ground squirrel</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Rhinolophus alcyone</t>
+  </si>
+  <si>
+    <t>Horseshoe bat</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Miniopterus fuliginosus</t>
+  </si>
+  <si>
+    <t>Long-fingered bat</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Hipposideros cf. ruber</t>
+  </si>
+  <si>
+    <t>Roundleaf bat</t>
+  </si>
+  <si>
+    <t>Tent-making bat</t>
+  </si>
+  <si>
+    <t>Marmota monax</t>
+  </si>
+  <si>
+    <t>Woodchuck</t>
+  </si>
+  <si>
+    <t>Woolly monkey</t>
+  </si>
+  <si>
+    <t>MH307930</t>
+  </si>
+  <si>
+    <t>DCHBV</t>
+  </si>
+  <si>
+    <t>Domestic cat hepadnavirus</t>
+  </si>
+  <si>
+    <t>Felis catus</t>
+  </si>
+  <si>
+    <t>Domestic cat</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>U29144</t>
+  </si>
+  <si>
+    <t>ASHV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arctic ground squirrel hepatitis B virus </t>
+  </si>
+  <si>
+    <t>Spermophilus parryii</t>
+  </si>
+  <si>
+    <t>Arctic ground squirrel</t>
+  </si>
+  <si>
+    <t>Alaska</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,6 +473,11 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -308,7 +529,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="265">
+  <cellStyleXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -574,18 +795,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="265">
+  <cellStyles count="295">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -718,6 +985,21 @@
     <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -850,6 +1132,21 @@
     <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1179,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A3:XFD4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1191,10 +1488,14 @@
     <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="28.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,312 +1511,651 @@
       <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="12">
+        <v>40391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="12">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="14">
+        <v>40065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="D14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="12">
+        <v>41730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="13">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="12">
+        <v>39753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="13">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="13">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="E23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="14">
+        <v>42464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="13"/>
     </row>
   </sheetData>
   <sortState ref="A2:D69">

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11920" yWindow="1900" windowWidth="28580" windowHeight="17680" tabRatio="500"/>
+    <workbookView xWindow="25540" yWindow="1020" windowWidth="27340" windowHeight="25140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="187">
   <si>
     <t>sequence-ID</t>
   </si>
@@ -427,6 +427,159 @@
   </si>
   <si>
     <t>Alaska</t>
+  </si>
+  <si>
+    <t>SLHBV-1</t>
+  </si>
+  <si>
+    <t>Herpetohepadnavirus</t>
+  </si>
+  <si>
+    <t>Sceloporus adleri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiny lizard </t>
+  </si>
+  <si>
+    <t>SkHBV</t>
+  </si>
+  <si>
+    <t>Saproscincus basiliscus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skink </t>
+  </si>
+  <si>
+    <t>AMDV</t>
+  </si>
+  <si>
+    <t>Metahepadnavirus</t>
+  </si>
+  <si>
+    <t>Astatotilapia sp</t>
+  </si>
+  <si>
+    <t>Astatotilapia</t>
+  </si>
+  <si>
+    <t>TMDV</t>
+  </si>
+  <si>
+    <t>Astyanax mexicanus</t>
+  </si>
+  <si>
+    <t>Mexican tetra</t>
+  </si>
+  <si>
+    <t>IMDV</t>
+  </si>
+  <si>
+    <t>Chionodraco hamatus</t>
+  </si>
+  <si>
+    <t>Crocodile icefish</t>
+  </si>
+  <si>
+    <t>KNDV-Lg</t>
+  </si>
+  <si>
+    <t>Lucania goodei</t>
+  </si>
+  <si>
+    <t>Bluefin killifish</t>
+  </si>
+  <si>
+    <t>WMNDV</t>
+  </si>
+  <si>
+    <t>Gambusia affinis</t>
+  </si>
+  <si>
+    <t>Western mosquitofish</t>
+  </si>
+  <si>
+    <t>ANDV</t>
+  </si>
+  <si>
+    <t>KNDV-Lp-1</t>
+  </si>
+  <si>
+    <t>Lucania parva</t>
+  </si>
+  <si>
+    <t>Rainwater killifish</t>
+  </si>
+  <si>
+    <t>EENDV</t>
+  </si>
+  <si>
+    <t>Anguilla anguilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European eel </t>
+  </si>
+  <si>
+    <t>RNDV</t>
+  </si>
+  <si>
+    <t>Sebastes nigrocinctus</t>
+  </si>
+  <si>
+    <t>Tiger rockfish</t>
+  </si>
+  <si>
+    <t>BWNDV-1</t>
+  </si>
+  <si>
+    <t>Brienomyrus brachyistius</t>
+  </si>
+  <si>
+    <t>BWNDV-2</t>
+  </si>
+  <si>
+    <t>SSNDV</t>
+  </si>
+  <si>
+    <t>Oncorhynchus nerka</t>
+  </si>
+  <si>
+    <t>Sockeye salmon</t>
+  </si>
+  <si>
+    <t>YDNDV</t>
+  </si>
+  <si>
+    <t>Nibea albiflora</t>
+  </si>
+  <si>
+    <t>Yellow drum</t>
+  </si>
+  <si>
+    <t>SNDV</t>
+  </si>
+  <si>
+    <t>Gasterosteus aculeatus</t>
+  </si>
+  <si>
+    <t>Three-spined stickleback</t>
+  </si>
+  <si>
+    <t>KNDV-Lp-2</t>
+  </si>
+  <si>
+    <t>CSKV</t>
+  </si>
+  <si>
+    <t>Parahepadnavirus</t>
+  </si>
+  <si>
+    <t>Oncorhynchus kisutch</t>
+  </si>
+  <si>
+    <t>Coho salmon</t>
+  </si>
+  <si>
+    <t>Baby whale</t>
   </si>
 </sst>
 </file>
@@ -529,8 +682,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="295">
+  <cellStyleXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -852,7 +1019,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="295">
+  <cellStyles count="309">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1000,6 +1167,13 @@
     <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1147,6 +1321,13 @@
     <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1476,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A26" sqref="A26:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2157,6 +2338,384 @@
       </c>
       <c r="I25" s="13"/>
     </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D69">
     <sortCondition ref="D2:D69"/>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25540" yWindow="1020" windowWidth="27340" windowHeight="25140" tabRatio="500"/>
+    <workbookView xWindow="8020" yWindow="5280" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="193">
   <si>
     <t>sequence-ID</t>
   </si>
@@ -207,12 +207,6 @@
     <t>Virus</t>
   </si>
   <si>
-    <t>Fish</t>
-  </si>
-  <si>
-    <t>Amphibian</t>
-  </si>
-  <si>
     <t>AY494851</t>
   </si>
   <si>
@@ -261,39 +255,24 @@
     <t>host_common_name</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Nanorana parkeri</t>
   </si>
   <si>
     <t>Tibetan frog</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
     <t>Ardea cinerea</t>
   </si>
   <si>
     <t>Grey heron</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>Psittacula krameri</t>
   </si>
   <si>
     <t>Rose-ringed parakeet</t>
   </si>
   <si>
-    <t>Poland</t>
-  </si>
-  <si>
     <t>Chen rossii</t>
   </si>
   <si>
@@ -312,9 +291,6 @@
     <t>Sheldgoose</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eudromia elegans </t>
   </si>
   <si>
@@ -363,18 +339,12 @@
     <t>Horseshoe bat</t>
   </si>
   <si>
-    <t>Gabon</t>
-  </si>
-  <si>
     <t>Miniopterus fuliginosus</t>
   </si>
   <si>
     <t>Long-fingered bat</t>
   </si>
   <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
     <t>Hipposideros cf. ruber</t>
   </si>
   <si>
@@ -408,9 +378,6 @@
     <t>Domestic cat</t>
   </si>
   <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>U29144</t>
   </si>
   <si>
@@ -426,9 +393,6 @@
     <t>Arctic ground squirrel</t>
   </si>
   <si>
-    <t>Alaska</t>
-  </si>
-  <si>
     <t>SLHBV-1</t>
   </si>
   <si>
@@ -580,6 +544,60 @@
   </si>
   <si>
     <t>Baby whale</t>
+  </si>
+  <si>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Icefish metahepadnavirus</t>
+  </si>
+  <si>
+    <t>Skink herpetohepadnavirus</t>
+  </si>
+  <si>
+    <t>Astatotilapia nackednavirus</t>
+  </si>
+  <si>
+    <t>Western mosquitofish nackednavirus</t>
+  </si>
+  <si>
+    <t>Spiny lizard herpetohepadnavirus</t>
+  </si>
+  <si>
+    <t>Astatotilapia metahepadnavirus</t>
+  </si>
+  <si>
+    <t>Tetra metahepadnavirus</t>
+  </si>
+  <si>
+    <t>Bluefin killifish nackednavirus</t>
+  </si>
+  <si>
+    <t>Killifish nackednavirus Lp 1</t>
+  </si>
+  <si>
+    <t>Killifish nackednavirus Lp 2</t>
+  </si>
+  <si>
+    <t>European eel nackednavirus</t>
+  </si>
+  <si>
+    <t>Tiger rockfish nackednavirus</t>
+  </si>
+  <si>
+    <t>Baby whale nackednavirus</t>
+  </si>
+  <si>
+    <t>Sockeye salmon nackednavirus</t>
+  </si>
+  <si>
+    <t>Yellow drum nackednavirus</t>
+  </si>
+  <si>
+    <t>Stickleback nackednavirus</t>
+  </si>
+  <si>
+    <t>Coho salmon parahepadnavirus</t>
   </si>
 </sst>
 </file>
@@ -635,7 +653,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,6 +690,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -682,7 +724,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="309">
+  <cellStyleXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -992,34 +1034,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="309">
+  <cellStyles count="361">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1174,6 +1261,32 @@
     <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1328,6 +1441,32 @@
     <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1657,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1672,11 +1811,10 @@
     <col min="5" max="5" width="10.83203125" style="2"/>
     <col min="6" max="6" width="28.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1693,56 +1831,38 @@
         <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="12">
-        <v>40391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>5</v>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
@@ -1750,17 +1870,22 @@
       <c r="E3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
+      <c r="F3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
@@ -1769,25 +1894,21 @@
         <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>23</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>15</v>
@@ -1796,25 +1917,21 @@
         <v>61</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
+        <v>84</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
@@ -1823,22 +1940,21 @@
         <v>61</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>20</v>
+        <v>86</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
@@ -1847,25 +1963,21 @@
         <v>61</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>19</v>
+        <v>88</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>
@@ -1874,851 +1986,814 @@
         <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="2" t="s">
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="2" t="s">
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="12">
-        <v>42156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="B43" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="14">
-        <v>40065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="D43" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="12">
-        <v>41730</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="13">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="12">
-        <v>39753</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="13">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="13">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I24" s="14">
-        <v>42464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>185</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D69">
-    <sortCondition ref="D2:D69"/>
+  <sortState ref="A2:I43">
+    <sortCondition ref="D2:D43"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="191">
   <si>
     <t>sequence-ID</t>
   </si>
@@ -199,12 +199,6 @@
   </si>
   <si>
     <t>NC_035210</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Virus</t>
   </si>
   <si>
     <t>AY494851</t>
@@ -724,8 +718,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="361">
+  <cellStyleXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1106,7 +1102,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="361">
+  <cellStyles count="363">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1287,6 +1283,7 @@
     <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1467,6 +1464,7 @@
     <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1796,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F43" sqref="A1:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1808,13 +1806,12 @@
     <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="28.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="28.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1828,16 +1825,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="14" t="s">
         <v>42</v>
       </c>
@@ -1850,11 +1844,8 @@
       <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="14" t="s">
         <v>44</v>
       </c>
@@ -1868,16 +1859,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
@@ -1891,16 +1879,13 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
@@ -1914,16 +1899,13 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>82</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
         <v>49</v>
       </c>
@@ -1937,16 +1919,13 @@
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -1960,16 +1939,13 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>86</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
         <v>59</v>
       </c>
@@ -1983,18 +1959,15 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>4</v>
@@ -2005,63 +1978,54 @@
       <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>61</v>
+      <c r="E10" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>61</v>
+      <c r="E11" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="14" t="s">
         <v>58</v>
       </c>
@@ -2072,410 +2036,356 @@
         <v>37</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="D16" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="16" t="s">
+      <c r="D19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="F20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="16" t="s">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="16" t="s">
+      <c r="D29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="16" t="s">
+      <c r="F29" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="14" t="s">
         <v>43</v>
       </c>
@@ -2488,14 +2398,11 @@
       <c r="D30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="F30" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="14" t="s">
         <v>45</v>
       </c>
@@ -2509,16 +2416,13 @@
         <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="14" t="s">
         <v>53</v>
       </c>
@@ -2532,16 +2436,13 @@
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
         <v>51</v>
       </c>
@@ -2555,16 +2456,13 @@
         <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
         <v>52</v>
       </c>
@@ -2578,16 +2476,13 @@
         <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
         <v>54</v>
       </c>
@@ -2601,16 +2496,13 @@
         <v>14</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
@@ -2624,16 +2516,13 @@
         <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="14" t="s">
         <v>56</v>
       </c>
@@ -2646,83 +2535,71 @@
       <c r="D37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="F37" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="B39" s="16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>121</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>61</v>
+      <c r="E39" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D40" s="13" t="s">
+      <c r="F40" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="14" t="s">
         <v>57</v>
       </c>
@@ -2733,19 +2610,16 @@
         <v>36</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="14" t="s">
         <v>55</v>
       </c>
@@ -2756,39 +2630,33 @@
         <v>32</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="B43" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="16" t="s">
+      <c r="D43" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>74</v>
+      <c r="F43" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -282,9 +282,6 @@
     <t>Ashy-headed sheldgoose</t>
   </si>
   <si>
-    <t>Sheldgoose</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eudromia elegans </t>
   </si>
   <si>
@@ -592,6 +589,9 @@
   </si>
   <si>
     <t>Coho salmon parahepadnavirus</t>
+  </si>
+  <si>
+    <t>Chloephaga poliocephala</t>
   </si>
 </sst>
 </file>
@@ -718,8 +718,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="363">
+  <cellStyleXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1102,7 +1118,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="363">
+  <cellStyles count="379">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1284,6 +1300,14 @@
     <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1465,6 +1489,14 @@
     <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1796,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F43" sqref="A1:F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1939,10 +1971,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1959,10 +1991,10 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1979,7 +2011,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>61</v>
@@ -2002,7 +2034,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2022,7 +2054,7 @@
         <v>69</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2036,7 +2068,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>76</v>
@@ -2047,342 +2079,342 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2399,7 +2431,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2416,10 +2448,10 @@
         <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2436,10 +2468,10 @@
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2456,10 +2488,10 @@
         <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2476,10 +2508,10 @@
         <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2496,10 +2528,10 @@
         <v>14</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2516,10 +2548,10 @@
         <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2536,67 +2568,67 @@
         <v>14</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>119</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" s="13" t="s">
+      <c r="E40" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2610,13 +2642,13 @@
         <v>36</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2630,27 +2662,27 @@
         <v>32</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>73</v>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/DNArt/Hepadnaviridae-GLUE/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81BF77C-E9D1-0545-A5D0-C1FCF4AE818D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="5280" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="1940" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$46</definedName>
+  </definedNames>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="195">
   <si>
     <t>sequence-ID</t>
   </si>
@@ -592,12 +601,24 @@
   </si>
   <si>
     <t>Chloephaga poliocephala</t>
+  </si>
+  <si>
+    <t>Colubroidea</t>
+  </si>
+  <si>
+    <t>snakes</t>
+  </si>
+  <si>
+    <t>Endogenous snake hepatitis B virus 1</t>
+  </si>
+  <si>
+    <t>eSNHBV1-con</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1501,6 +1522,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1825,14 +1854,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="A1:F43"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
@@ -1843,7 +1872,7 @@
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1892,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>42</v>
       </c>
@@ -1877,7 +1906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>44</v>
       </c>
@@ -1897,7 +1926,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
@@ -1917,7 +1946,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
@@ -1937,7 +1966,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>49</v>
       </c>
@@ -1957,7 +1986,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -1977,7 +2006,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>59</v>
       </c>
@@ -1997,7 +2026,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>60</v>
       </c>
@@ -2017,7 +2046,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>62</v>
       </c>
@@ -2037,7 +2066,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>66</v>
       </c>
@@ -2057,7 +2086,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>58</v>
       </c>
@@ -2077,7 +2106,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>121</v>
       </c>
@@ -2097,7 +2126,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>125</v>
       </c>
@@ -2117,212 +2146,212 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B16" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>179</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>129</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>129</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="16" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B19" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>176</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>183</v>
+        <v>145</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>185</v>
@@ -2337,192 +2366,192 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>188</v>
+        <v>160</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="14" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>6</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>8</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>14</v>
@@ -2531,168 +2560,193 @@
         <v>105</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="E37" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="16" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B40" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C40" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="16" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B41" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="14" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I43">
+  <autoFilter ref="A2:F46" xr:uid="{702386A7-56FA-ED4C-AE43-F9294415061C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F46">
+      <sortCondition ref="D2:D46"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I43">
     <sortCondition ref="D2:D43"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/DNArt/Hepadnaviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81BF77C-E9D1-0545-A5D0-C1FCF4AE818D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3863863-997C-F44C-BC2F-736702D4E89A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="1940" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$48</definedName>
   </definedNames>
   <calcPr calcId="140000"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="214">
   <si>
     <t>sequence-ID</t>
   </si>
@@ -613,13 +613,70 @@
   </si>
   <si>
     <t>eSNHBV1-con</t>
+  </si>
+  <si>
+    <t>eAVHBV1</t>
+  </si>
+  <si>
+    <t>eAVHBV1-con</t>
+  </si>
+  <si>
+    <t>Endogenous avian hepatitis B virus 1</t>
+  </si>
+  <si>
+    <t>Neognathae</t>
+  </si>
+  <si>
+    <t>birds</t>
+  </si>
+  <si>
+    <t>eCRHBV1</t>
+  </si>
+  <si>
+    <t>eCRHBV2</t>
+  </si>
+  <si>
+    <t>eCRHBV1-con</t>
+  </si>
+  <si>
+    <t>eCRHBV2-con</t>
+  </si>
+  <si>
+    <t>Endogenous crocodile hepatitis B virus 1</t>
+  </si>
+  <si>
+    <t>Endogenous crocodile hepatitis B virus 2</t>
+  </si>
+  <si>
+    <t>Crocodylus</t>
+  </si>
+  <si>
+    <t>crocodiles and gharial</t>
+  </si>
+  <si>
+    <t>eTHBV1</t>
+  </si>
+  <si>
+    <t>eTHBV1-con</t>
+  </si>
+  <si>
+    <t>turtles</t>
+  </si>
+  <si>
+    <t>Endogenous turtle hepatitis B virus 1</t>
+  </si>
+  <si>
+    <t>Chrysemys</t>
+  </si>
+  <si>
+    <t>crocodiles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -648,23 +705,33 @@
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1855,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2087,668 +2154,749 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>174</v>
+        <v>121</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>194</v>
+      <c r="A15" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>192</v>
+        <v>126</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>129</v>
+        <v>194</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>131</v>
+        <v>191</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>129</v>
+        <v>204</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>129</v>
+        <v>205</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>70</v>
+        <v>209</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>140</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>70</v>
+        <v>178</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>70</v>
+        <v>179</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>70</v>
+        <v>173</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>184</v>
+        <v>141</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>185</v>
+        <v>144</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>185</v>
+        <v>145</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>186</v>
+        <v>148</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>187</v>
+        <v>151</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="E38" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="F38" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="9" t="s">
+      <c r="A40" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>168</v>
+      <c r="A41" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>172</v>
+        <v>113</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B48" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C48" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F46" xr:uid="{702386A7-56FA-ED4C-AE43-F9294415061C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F46">
-      <sortCondition ref="D2:D46"/>
+  <autoFilter ref="A1:F48" xr:uid="{F812D6D6-C044-6B43-8828-F594A1822C8B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F48">
+      <sortCondition ref="D1:D48"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I43">
-    <sortCondition ref="D2:D43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I44">
+    <sortCondition ref="D2:D44"/>
   </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/DNArt/Hepadnaviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3863863-997C-F44C-BC2F-736702D4E89A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ACFE6C-BDF8-CC41-9DBC-87AEECC16119}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="660" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$50</definedName>
   </definedNames>
   <calcPr calcId="140000"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="218">
   <si>
     <t>sequence-ID</t>
   </si>
@@ -630,21 +630,12 @@
     <t>birds</t>
   </si>
   <si>
-    <t>eCRHBV1</t>
-  </si>
-  <si>
     <t>eCRHBV2</t>
   </si>
   <si>
-    <t>eCRHBV1-con</t>
-  </si>
-  <si>
     <t>eCRHBV2-con</t>
   </si>
   <si>
-    <t>Endogenous crocodile hepatitis B virus 1</t>
-  </si>
-  <si>
     <t>Endogenous crocodile hepatitis B virus 2</t>
   </si>
   <si>
@@ -654,22 +645,43 @@
     <t>crocodiles and gharial</t>
   </si>
   <si>
-    <t>eTHBV1</t>
-  </si>
-  <si>
-    <t>eTHBV1-con</t>
-  </si>
-  <si>
     <t>turtles</t>
   </si>
   <si>
-    <t>Endogenous turtle hepatitis B virus 1</t>
-  </si>
-  <si>
     <t>Chrysemys</t>
   </si>
   <si>
     <t>crocodiles</t>
+  </si>
+  <si>
+    <t>eCRHBV</t>
+  </si>
+  <si>
+    <t>eCRHBV-con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endogenous crocodile hepatitis B virus </t>
+  </si>
+  <si>
+    <t>eDRHPV</t>
+  </si>
+  <si>
+    <t>eDRHPV-con</t>
+  </si>
+  <si>
+    <t>Endogenous comodo dragon hepatitis B virus</t>
+  </si>
+  <si>
+    <t>Comodo dragon</t>
+  </si>
+  <si>
+    <t>eTHBV</t>
+  </si>
+  <si>
+    <t>eTHBV-con</t>
+  </si>
+  <si>
+    <t>Endogenous turtle hepatitis B virus</t>
   </si>
 </sst>
 </file>
@@ -1922,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2255,646 +2267,669 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>203</v>
-      </c>
       <c r="C18" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>129</v>
+        <v>217</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>129</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>70</v>
+        <v>132</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>70</v>
+        <v>173</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>175</v>
+        <v>138</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="E42" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B46" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C46" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B47" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B48" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>97</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F48" xr:uid="{F812D6D6-C044-6B43-8828-F594A1822C8B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F48">
-      <sortCondition ref="D1:D48"/>
+  <autoFilter ref="A1:F50" xr:uid="{F812D6D6-C044-6B43-8828-F594A1822C8B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F50">
+      <sortCondition ref="D1:D50"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I44">
-    <sortCondition ref="D2:D44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
+    <sortCondition ref="D2:D46"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/DNArt/Hepadnaviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ACFE6C-BDF8-CC41-9DBC-87AEECC16119}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB65564-E23E-0C48-A74F-4F57A96CC98E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="660" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="222">
   <si>
     <t>sequence-ID</t>
   </si>
@@ -682,6 +682,18 @@
   </si>
   <si>
     <t>Endogenous turtle hepatitis B virus</t>
+  </si>
+  <si>
+    <t>SpHBV</t>
+  </si>
+  <si>
+    <t>SphHBV_con</t>
+  </si>
+  <si>
+    <t>Sphenodon hepatitis B virus</t>
+  </si>
+  <si>
+    <t>Sphenodon</t>
   </si>
 </sst>
 </file>
@@ -1936,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2343,197 +2355,211 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>129</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>129</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>180</v>
+        <v>141</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>185</v>
@@ -2550,190 +2576,190 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>146</v>
+      <c r="A36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="E37" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>14</v>
@@ -2742,124 +2768,121 @@
         <v>105</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="E44" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="A45" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>14</v>
+        <v>167</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>168</v>
+        <v>219</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2923,7 +2946,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F50" xr:uid="{F812D6D6-C044-6B43-8828-F594A1822C8B}">
+  <autoFilter ref="A1:F50" xr:uid="{1A27AA88-2286-BC47-A07F-AD69D369C957}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F50">
       <sortCondition ref="D1:D50"/>
     </sortState>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/DNArt/Hepadnaviridae-GLUE/tabular/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB65564-E23E-0C48-A74F-4F57A96CC98E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="660" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21420" yWindow="9960" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$43</definedName>
   </definedNames>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,19 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="222">
-  <si>
-    <t>sequence-ID</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>genus</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="193">
   <si>
     <t>DHBV</t>
   </si>
@@ -603,109 +585,35 @@
     <t>Chloephaga poliocephala</t>
   </si>
   <si>
-    <t>Colubroidea</t>
-  </si>
-  <si>
-    <t>snakes</t>
-  </si>
-  <si>
-    <t>Endogenous snake hepatitis B virus 1</t>
-  </si>
-  <si>
-    <t>eSNHBV1-con</t>
-  </si>
-  <si>
-    <t>eAVHBV1</t>
-  </si>
-  <si>
-    <t>eAVHBV1-con</t>
-  </si>
-  <si>
-    <t>Endogenous avian hepatitis B virus 1</t>
-  </si>
-  <si>
-    <t>Neognathae</t>
-  </si>
-  <si>
-    <t>birds</t>
-  </si>
-  <si>
-    <t>eCRHBV2</t>
-  </si>
-  <si>
-    <t>eCRHBV2-con</t>
-  </si>
-  <si>
-    <t>Endogenous crocodile hepatitis B virus 2</t>
-  </si>
-  <si>
-    <t>Crocodylus</t>
-  </si>
-  <si>
-    <t>crocodiles and gharial</t>
-  </si>
-  <si>
-    <t>turtles</t>
-  </si>
-  <si>
-    <t>Chrysemys</t>
-  </si>
-  <si>
-    <t>crocodiles</t>
-  </si>
-  <si>
-    <t>eCRHBV</t>
-  </si>
-  <si>
-    <t>eCRHBV-con</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endogenous crocodile hepatitis B virus </t>
-  </si>
-  <si>
-    <t>eDRHPV</t>
-  </si>
-  <si>
-    <t>eDRHPV-con</t>
-  </si>
-  <si>
-    <t>Endogenous comodo dragon hepatitis B virus</t>
-  </si>
-  <si>
-    <t>Comodo dragon</t>
-  </si>
-  <si>
-    <t>eTHBV</t>
-  </si>
-  <si>
-    <t>eTHBV-con</t>
-  </si>
-  <si>
-    <t>Endogenous turtle hepatitis B virus</t>
-  </si>
-  <si>
-    <t>SpHBV</t>
-  </si>
-  <si>
-    <t>SphHBV_con</t>
-  </si>
-  <si>
-    <t>Sphenodon hepatitis B virus</t>
-  </si>
-  <si>
-    <t>Sphenodon</t>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>virus_name</t>
+  </si>
+  <si>
+    <t>virus_full_name</t>
+  </si>
+  <si>
+    <t>virus_genus</t>
+  </si>
+  <si>
+    <t>clade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -830,8 +738,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="379">
+  <cellStyleXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1230,7 +1160,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="379">
+  <cellStyles count="401">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1420,6 +1350,17 @@
     <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1609,6 +1550,17 @@
     <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1945,1013 +1897,924 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection activeCell="G1" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="5" width="23.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="8" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="8" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>198</v>
-      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="10"/>
       <c r="F12" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>37</v>
+        <v>72</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E13" s="10"/>
       <c r="F13" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>177</v>
+      <c r="C14" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="16" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>125</v>
-      </c>
       <c r="B15" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="11"/>
       <c r="F17" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="12"/>
       <c r="F18" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="12"/>
       <c r="F20" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="12"/>
       <c r="F21" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="D22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="12"/>
       <c r="F22" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="12"/>
       <c r="F23" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>180</v>
+        <v>150</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E24" s="12"/>
       <c r="F24" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="16" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="G30" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="G37" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="16" t="s">
+      <c r="D40" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="14" t="s">
+      <c r="E41" s="4"/>
+      <c r="F41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="D42" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="4"/>
       <c r="F43" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F50" xr:uid="{1A27AA88-2286-BC47-A07F-AD69D369C957}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F50">
+  <autoFilter ref="A1:G43">
+    <sortState ref="A2:F50">
       <sortCondition ref="D1:D50"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
+  <sortState ref="A2:I46">
     <sortCondition ref="D2:D46"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -1901,7 +1901,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1048576"/>
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -1901,7 +1901,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="C21" sqref="C6:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -738,8 +738,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="401">
+  <cellStyleXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1160,7 +1162,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="401">
+  <cellStyles count="403">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1361,6 +1363,7 @@
     <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1561,6 +1564,7 @@
     <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1900,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C6:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="9960" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -738,8 +738,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="403">
+  <cellStyleXfs count="413">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1162,7 +1172,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="403">
+  <cellStyles count="413">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1364,6 +1374,11 @@
     <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1565,6 +1580,11 @@
     <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1904,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$45</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="205">
   <si>
     <t>DHBV</t>
   </si>
@@ -528,9 +528,6 @@
     <t>Baby whale</t>
   </si>
   <si>
-    <t>Unclassified</t>
-  </si>
-  <si>
     <t>Icefish metahepadnavirus</t>
   </si>
   <si>
@@ -585,9 +582,6 @@
     <t>Chloephaga poliocephala</t>
   </si>
   <si>
-    <t>Fish</t>
-  </si>
-  <si>
     <t>sequenceID</t>
   </si>
   <si>
@@ -601,6 +595,48 @@
   </si>
   <si>
     <t>clade</t>
+  </si>
+  <si>
+    <t>Eastern sea garfish hepatitis</t>
+  </si>
+  <si>
+    <t>MH716822</t>
+  </si>
+  <si>
+    <t>EsgHBV</t>
+  </si>
+  <si>
+    <t>Eastern sea garfish</t>
+  </si>
+  <si>
+    <t>Hyporhamphus australis</t>
+  </si>
+  <si>
+    <t>RDNV-type</t>
+  </si>
+  <si>
+    <t>SSDNV-type</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>MH484442</t>
+  </si>
+  <si>
+    <t>Shrew hepatitis B virus</t>
+  </si>
+  <si>
+    <t>Crocidura lasiura</t>
+  </si>
+  <si>
+    <t>Ussuri white-toothed shrew</t>
+  </si>
+  <si>
+    <t>ClHBV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagothrix lagothricha </t>
   </si>
 </sst>
 </file>
@@ -718,13 +754,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,8 +774,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="413">
+  <cellStyleXfs count="471">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1167,12 +1261,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="413">
+  <cellStyles count="471">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1379,6 +1473,35 @@
     <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1585,6 +1708,35 @@
     <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1922,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C11" sqref="A11:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1941,19 +2093,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>70</v>
@@ -1963,13 +2115,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1978,13 +2130,13 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1999,13 +2151,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2020,13 +2172,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2041,13 +2193,13 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2062,13 +2214,13 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2076,20 +2228,20 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2104,13 +2256,13 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -2125,13 +2277,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -2146,13 +2298,13 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -2167,13 +2319,13 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -2188,14 +2340,14 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>117</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>118</v>
@@ -2209,14 +2361,14 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>170</v>
+      <c r="C14" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>118</v>
@@ -2230,612 +2382,688 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C17" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D18" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>171</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>196</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>177</v>
+      <c r="A21" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>196</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>179</v>
+      <c r="A22" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>196</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>180</v>
+      <c r="A23" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>196</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>181</v>
+      <c r="A24" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>178</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>196</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>181</v>
+      <c r="A25" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>196</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>182</v>
+      <c r="A26" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="12" t="s">
+        <v>196</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>155</v>
+        <v>69</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>183</v>
+      <c r="A27" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>184</v>
+      <c r="A28" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>178</v>
+      <c r="A29" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="F29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="G30" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="14" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>4</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>22</v>
+      <c r="A34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>26</v>
+      <c r="A35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>9</v>
+      <c r="A36" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>31</v>
+      <c r="A37" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="5"/>
+      <c r="F37" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G37" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>109</v>
+      <c r="A38" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="16" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="2" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="16" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D40" s="13" t="s">
+      <c r="C44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="2" t="s">
+      <c r="E44" s="11"/>
+      <c r="F44" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="14" t="s">
+    <row r="45" spans="1:7">
+      <c r="A45" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="2" t="s">
+      <c r="D45" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G43">
-    <sortState ref="A2:F50">
-      <sortCondition ref="D1:D50"/>
+  <autoFilter ref="A1:G45">
+    <sortState ref="A2:G45">
+      <sortCondition ref="D2:D45"/>
+      <sortCondition ref="E2:E45"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:I46">

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -2076,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -597,9 +597,6 @@
     <t>clade</t>
   </si>
   <si>
-    <t>Eastern sea garfish hepatitis</t>
-  </si>
-  <si>
     <t>MH716822</t>
   </si>
   <si>
@@ -637,6 +634,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lagothrix lagothricha </t>
+  </si>
+  <si>
+    <t>Eastern sea garfish hepatitis B virus</t>
   </si>
 </sst>
 </file>
@@ -774,8 +774,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="471">
+  <cellStyleXfs count="475">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1266,7 +1270,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="471">
+  <cellStyles count="475">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1502,6 +1506,8 @@
     <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1737,6 +1743,8 @@
     <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2077,7 +2085,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2404,23 +2412,23 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>193</v>
-      </c>
       <c r="C16" s="13" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>125</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2500,7 +2508,7 @@
         <v>66</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>135</v>
@@ -2523,7 +2531,7 @@
         <v>66</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>138</v>
@@ -2546,7 +2554,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>126</v>
@@ -2569,7 +2577,7 @@
         <v>66</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>142</v>
@@ -2592,7 +2600,7 @@
         <v>66</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>145</v>
@@ -2615,7 +2623,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>148</v>
@@ -2638,7 +2646,7 @@
         <v>66</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>69</v>
@@ -2661,7 +2669,7 @@
         <v>66</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>151</v>
@@ -2684,7 +2692,7 @@
         <v>66</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>151</v>
@@ -2707,7 +2715,7 @@
         <v>66</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>154</v>
@@ -2730,7 +2738,7 @@
         <v>66</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>157</v>
@@ -2753,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>160</v>
@@ -2776,7 +2784,7 @@
         <v>66</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>142</v>
@@ -2799,7 +2807,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>95</v>
@@ -2822,10 +2830,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>106</v>
@@ -2977,23 +2985,23 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:7">

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1740" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -774,8 +774,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="475">
+  <cellStyleXfs count="491">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1270,7 +1286,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="475">
+  <cellStyles count="491">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1508,6 +1524,14 @@
     <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1745,6 +1769,14 @@
     <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2084,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/Hepadnaviridae-GLUE/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E662FB-ABDC-004C-B576-095E683D9F96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="760" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$45</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="206">
   <si>
     <t>DHBV</t>
   </si>
@@ -300,9 +306,6 @@
     <t>White sucker</t>
   </si>
   <si>
-    <t>KX058434</t>
-  </si>
-  <si>
     <t>African cichlid hepadnavirus</t>
   </si>
   <si>
@@ -637,12 +640,18 @@
   </si>
   <si>
     <t>Eastern sea garfish hepatitis B virus</t>
+  </si>
+  <si>
+    <t>virus_family</t>
+  </si>
+  <si>
+    <t>Hepadnaviridae</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2081,48 +2090,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="2" customWidth="1"/>
-    <col min="4" max="5" width="23.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
+    <col min="5" max="6" width="23.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>38</v>
       </c>
@@ -2132,12 +2145,15 @@
       <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -2147,18 +2163,21 @@
       <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>46</v>
       </c>
@@ -2168,18 +2187,21 @@
       <c r="C4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -2189,18 +2211,21 @@
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
@@ -2210,18 +2235,21 @@
       <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>44</v>
       </c>
@@ -2231,18 +2259,21 @@
       <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
@@ -2252,18 +2283,21 @@
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -2273,18 +2307,21 @@
       <c r="C9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
@@ -2294,18 +2331,21 @@
       <c r="C10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>62</v>
       </c>
@@ -2315,18 +2355,21 @@
       <c r="C11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>54</v>
       </c>
@@ -2336,60 +2379,69 @@
       <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="15" t="s">
+      <c r="H13" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="15" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>53</v>
       </c>
@@ -2399,401 +2451,455 @@
       <c r="C15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="2" t="s">
+      <c r="D15" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>192</v>
-      </c>
       <c r="C16" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2" t="s">
-        <v>194</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D23" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="F23" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="F24" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="15" t="s">
+      <c r="F25" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="F26" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="15" t="s">
+      <c r="G27" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="H27" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="H28" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D29" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="F29" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="F30" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="F31" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>41</v>
       </c>
@@ -2803,20 +2909,23 @@
       <c r="C33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>52</v>
       </c>
@@ -2826,20 +2935,23 @@
       <c r="C34" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>203</v>
+      <c r="F34" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>202</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>39</v>
       </c>
@@ -2849,15 +2961,18 @@
       <c r="C35" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="G35" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="F35" s="5"/>
+      <c r="H35" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>49</v>
       </c>
@@ -2867,18 +2982,21 @@
       <c r="C36" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="5"/>
+      <c r="G36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>47</v>
       </c>
@@ -2888,18 +3006,21 @@
       <c r="C37" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="5"/>
+      <c r="G37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>48</v>
       </c>
@@ -2909,18 +3030,21 @@
       <c r="C38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="5"/>
+      <c r="G38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>50</v>
       </c>
@@ -2930,18 +3054,21 @@
       <c r="C39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>42</v>
       </c>
@@ -2951,102 +3078,117 @@
       <c r="C40" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="5"/>
+      <c r="G40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="H41" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="F42" s="5"/>
+      <c r="G42" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="B43" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="15" t="s">
+      <c r="F43" s="9"/>
+      <c r="G43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="F44" s="11"/>
+      <c r="G44" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>51</v>
       </c>
@@ -3056,26 +3198,29 @@
       <c r="C45" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="2" t="s">
+      <c r="D45" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G45">
-    <sortState ref="A2:G45">
-      <sortCondition ref="D2:D45"/>
+  <autoFilter ref="A1:H45" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H45">
       <sortCondition ref="E2:E45"/>
+      <sortCondition ref="F2:F45"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:I46">
-    <sortCondition ref="D2:D46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J46">
+    <sortCondition ref="E2:E46"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="210">
   <si>
     <t>DHBV</t>
   </si>
@@ -637,6 +637,21 @@
   </si>
   <si>
     <t>Eastern sea garfish hepatitis B virus</t>
+  </si>
+  <si>
+    <t>MH716821</t>
+  </si>
+  <si>
+    <t>Australasian snapper</t>
+  </si>
+  <si>
+    <t>Australasian snapper hepadnavirus</t>
+  </si>
+  <si>
+    <t>AsHBV</t>
+  </si>
+  <si>
+    <t>Pagrus auratus</t>
   </si>
 </sst>
 </file>
@@ -774,8 +789,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="491">
+  <cellStyleXfs count="505">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1286,7 +1315,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="491">
+  <cellStyles count="505">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1532,6 +1561,13 @@
     <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1777,6 +1813,13 @@
     <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2114,10 +2157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G45"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G43" sqref="A1:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3097,6 +3140,27 @@
       </c>
       <c r="G45" s="2" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10340" yWindow="0" windowWidth="17340" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$45</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="212">
   <si>
     <t>DHBV</t>
   </si>
@@ -300,9 +300,6 @@
     <t>White sucker</t>
   </si>
   <si>
-    <t>KX058434</t>
-  </si>
-  <si>
     <t>African cichlid hepadnavirus</t>
   </si>
   <si>
@@ -652,6 +649,15 @@
   </si>
   <si>
     <t>Pagrus auratus</t>
+  </si>
+  <si>
+    <t>virus_family</t>
+  </si>
+  <si>
+    <t>Hepadnaviridae</t>
+  </si>
+  <si>
+    <t>MH158727</t>
   </si>
 </sst>
 </file>
@@ -789,8 +795,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="505">
+  <cellStyleXfs count="535">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1315,7 +1351,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="505">
+  <cellStyles count="535">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1568,6 +1604,21 @@
     <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1820,6 +1871,21 @@
     <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2157,10 +2223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G43" sqref="A1:G46"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2168,36 +2234,40 @@
     <col min="1" max="1" width="17.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="2" customWidth="1"/>
-    <col min="4" max="5" width="23.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="23.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="13" t="s">
         <v>38</v>
       </c>
@@ -2207,12 +2277,15 @@
       <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -2222,18 +2295,21 @@
       <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="13" t="s">
         <v>46</v>
       </c>
@@ -2243,18 +2319,21 @@
       <c r="C4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -2264,18 +2343,21 @@
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
@@ -2285,18 +2367,21 @@
       <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="13" t="s">
         <v>44</v>
       </c>
@@ -2306,18 +2391,21 @@
       <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
@@ -2327,18 +2415,21 @@
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -2348,18 +2439,21 @@
       <c r="C9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
@@ -2369,18 +2463,21 @@
       <c r="C10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="15" t="s">
         <v>62</v>
       </c>
@@ -2390,18 +2487,21 @@
       <c r="C11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="13" t="s">
         <v>54</v>
       </c>
@@ -2411,60 +2511,69 @@
       <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="15" t="s">
+      <c r="H13" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="15" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="13" t="s">
         <v>53</v>
       </c>
@@ -2474,401 +2583,455 @@
       <c r="C15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="2" t="s">
+      <c r="D15" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>192</v>
-      </c>
       <c r="C16" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2" t="s">
-        <v>194</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D23" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="F23" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="F24" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="15" t="s">
+      <c r="F25" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="15" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="F26" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="15" t="s">
+      <c r="G27" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="H27" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="H28" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D29" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="F29" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="F30" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="F31" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="13" t="s">
         <v>41</v>
       </c>
@@ -2878,20 +3041,23 @@
       <c r="C33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="13" t="s">
         <v>52</v>
       </c>
@@ -2901,20 +3067,23 @@
       <c r="C34" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>203</v>
+      <c r="F34" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>202</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="13" t="s">
         <v>39</v>
       </c>
@@ -2924,15 +3093,18 @@
       <c r="C35" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="G35" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="F35" s="5"/>
+      <c r="H35" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="13" t="s">
         <v>49</v>
       </c>
@@ -2942,18 +3114,21 @@
       <c r="C36" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="5"/>
+      <c r="G36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="13" t="s">
         <v>47</v>
       </c>
@@ -2963,18 +3138,21 @@
       <c r="C37" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="5"/>
+      <c r="G37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="13" t="s">
         <v>48</v>
       </c>
@@ -2984,18 +3162,21 @@
       <c r="C38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="5"/>
+      <c r="G38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="13" t="s">
         <v>50</v>
       </c>
@@ -3005,18 +3186,21 @@
       <c r="C39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="13" t="s">
         <v>42</v>
       </c>
@@ -3026,102 +3210,117 @@
       <c r="C40" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="5"/>
+      <c r="G40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="H41" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="F42" s="5"/>
+      <c r="G42" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="B43" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="15" t="s">
+      <c r="F43" s="9"/>
+      <c r="G43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="F44" s="11"/>
+      <c r="G44" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="13" t="s">
         <v>51</v>
       </c>
@@ -3131,47 +3330,53 @@
       <c r="C45" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="2" t="s">
+      <c r="D45" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>206</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G45">
-    <sortState ref="A2:G45">
-      <sortCondition ref="D2:D45"/>
+  <autoFilter ref="A1:H45">
+    <sortState ref="A2:H45">
       <sortCondition ref="E2:E45"/>
+      <sortCondition ref="F2:F45"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:I46">
-    <sortCondition ref="D2:D46"/>
+  <sortState ref="A2:J46">
+    <sortCondition ref="E2:E46"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -795,8 +795,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="535">
+  <cellStyleXfs count="543">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1351,7 +1359,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="535">
+  <cellStyles count="543">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1619,6 +1627,10 @@
     <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1886,6 +1898,10 @@
     <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2225,8 +2241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/family/Hepadnaviridae-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/family/Hepadnaviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE6053C-C0AB-C34C-87A5-96389A2C25E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935F876D-D268-0C40-9FD2-1AA279380A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="1900" windowWidth="31460" windowHeight="21500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="1880" windowWidth="31460" windowHeight="21500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="264">
   <si>
     <t>DHBV</t>
   </si>
@@ -788,6 +788,39 @@
   </si>
   <si>
     <t>Domestic dog</t>
+  </si>
+  <si>
+    <t>host_group</t>
+  </si>
+  <si>
+    <t>Supraprimates</t>
+  </si>
+  <si>
+    <t>Laurasiatheria</t>
+  </si>
+  <si>
+    <t>Amphibian</t>
+  </si>
+  <si>
+    <t>Reptilia</t>
+  </si>
+  <si>
+    <t>Actinopteri</t>
+  </si>
+  <si>
+    <t>Anseriformes</t>
+  </si>
+  <si>
+    <t>Psittaciformes</t>
+  </si>
+  <si>
+    <t>Tinamiformes</t>
+  </si>
+  <si>
+    <t>Gruiformes</t>
+  </si>
+  <si>
+    <t>Ciconiiformes</t>
   </si>
 </sst>
 </file>
@@ -2389,10 +2422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2403,13 +2436,13 @@
     <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
     <col min="5" max="6" width="23.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="28.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="30" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.5" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="8" max="9" width="25.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="30" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>169</v>
       </c>
@@ -2435,13 +2468,16 @@
         <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
@@ -2464,14 +2500,17 @@
       <c r="H2" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>40</v>
       </c>
@@ -2494,14 +2533,17 @@
       <c r="H3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>46</v>
       </c>
@@ -2524,14 +2566,17 @@
       <c r="H4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>43</v>
       </c>
@@ -2554,14 +2599,17 @@
       <c r="H5" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>45</v>
       </c>
@@ -2584,14 +2632,17 @@
       <c r="H6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J6" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>44</v>
       </c>
@@ -2614,14 +2665,17 @@
       <c r="H7" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>55</v>
       </c>
@@ -2644,14 +2698,17 @@
       <c r="H8" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>56</v>
       </c>
@@ -2674,14 +2731,17 @@
       <c r="H9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="J9" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>60</v>
       </c>
@@ -2704,14 +2764,17 @@
       <c r="H10" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>54</v>
       </c>
@@ -2734,14 +2797,17 @@
       <c r="H11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>111</v>
       </c>
@@ -2764,14 +2830,17 @@
       <c r="H12" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J12" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>115</v>
       </c>
@@ -2794,14 +2863,17 @@
       <c r="H13" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>53</v>
       </c>
@@ -2824,14 +2896,17 @@
       <c r="H14" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>174</v>
       </c>
@@ -2854,14 +2929,17 @@
       <c r="H15" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>118</v>
       </c>
@@ -2884,14 +2962,17 @@
       <c r="H16" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J16" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>122</v>
       </c>
@@ -2914,14 +2995,17 @@
       <c r="H17" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>125</v>
       </c>
@@ -2944,14 +3028,17 @@
       <c r="H18" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J18" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>243</v>
       </c>
@@ -2974,14 +3061,17 @@
       <c r="H19" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J19" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>41</v>
       </c>
@@ -3006,14 +3096,17 @@
       <c r="H20" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J20" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>52</v>
       </c>
@@ -3038,14 +3131,17 @@
       <c r="H21" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J21" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>39</v>
       </c>
@@ -3068,14 +3164,17 @@
       <c r="H22" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J22" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>49</v>
       </c>
@@ -3098,14 +3197,17 @@
       <c r="H23" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J23" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>47</v>
       </c>
@@ -3128,14 +3230,17 @@
       <c r="H24" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J24" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>48</v>
       </c>
@@ -3158,14 +3263,17 @@
       <c r="H25" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J25" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>50</v>
       </c>
@@ -3188,14 +3296,17 @@
       <c r="H26" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J26" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>42</v>
       </c>
@@ -3218,14 +3329,17 @@
       <c r="H27" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>101</v>
       </c>
@@ -3248,14 +3362,17 @@
       <c r="H28" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J28" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>248</v>
       </c>
@@ -3278,14 +3395,17 @@
       <c r="H29" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>181</v>
       </c>
@@ -3308,14 +3428,17 @@
       <c r="H30" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J30" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>200</v>
       </c>
@@ -3338,14 +3461,17 @@
       <c r="H31" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J31" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="K31" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>237</v>
       </c>
@@ -3368,14 +3494,17 @@
       <c r="H32" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J32" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="K32" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>106</v>
       </c>
@@ -3398,14 +3527,17 @@
       <c r="H33" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="K33" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>157</v>
       </c>
@@ -3428,14 +3560,17 @@
       <c r="H34" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J34" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="K34" s="10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>51</v>
       </c>
@@ -3458,14 +3593,17 @@
       <c r="H35" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J35" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="K35" s="10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>188</v>
       </c>
@@ -3488,10 +3626,13 @@
       <c r="H36" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J36" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="K36" s="10" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3502,7 +3643,7 @@
       <sortCondition ref="F2:F35"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K36">
     <sortCondition ref="E2:E36"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/tabular/hepadna-ncbi-refseqs-side-data.xlsx
+++ b/tabular/hepadna-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/family/Hepadnaviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935F876D-D268-0C40-9FD2-1AA279380A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9533BC40-E69D-0945-A457-75AA82F460EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8340" yWindow="1880" windowWidth="31460" windowHeight="21500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="270">
   <si>
     <t>DHBV</t>
   </si>
@@ -313,12 +313,6 @@
     <t>Miniopterus fuliginosus</t>
   </si>
   <si>
-    <t>Long-fingered bat</t>
-  </si>
-  <si>
-    <t>Hipposideros cf. ruber</t>
-  </si>
-  <si>
     <t>Roundleaf bat</t>
   </si>
   <si>
@@ -821,6 +815,30 @@
   </si>
   <si>
     <t>Ciconiiformes</t>
+  </si>
+  <si>
+    <t>African cichlid nackednavirus</t>
+  </si>
+  <si>
+    <t>Nackednaviridae</t>
+  </si>
+  <si>
+    <t>Nackednavirus</t>
+  </si>
+  <si>
+    <t>African cichlid</t>
+  </si>
+  <si>
+    <t>AcNV</t>
+  </si>
+  <si>
+    <t>Hipposideros armiger</t>
+  </si>
+  <si>
+    <t>Uroderma bilobatum</t>
+  </si>
+  <si>
+    <t>Eastern bent-wing bat</t>
   </si>
 </sst>
 </file>
@@ -887,7 +905,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,6 +984,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1521,7 +1545,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1541,6 +1565,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="543">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2422,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2444,22 +2469,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>67</v>
@@ -2468,13 +2493,13 @@
         <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2488,26 +2513,26 @@
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2521,7 +2546,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
@@ -2534,13 +2559,13 @@
         <v>72</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2554,7 +2579,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
@@ -2567,13 +2592,13 @@
         <v>74</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2587,7 +2612,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
@@ -2600,13 +2625,13 @@
         <v>76</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2620,7 +2645,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
@@ -2633,13 +2658,13 @@
         <v>78</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2653,26 +2678,26 @@
         <v>15</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>79</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2686,7 +2711,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
@@ -2699,13 +2724,13 @@
         <v>81</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2719,7 +2744,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
@@ -2732,13 +2757,13 @@
         <v>82</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2752,7 +2777,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -2765,13 +2790,13 @@
         <v>83</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2785,10 +2810,10 @@
         <v>33</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="12" t="s">
@@ -2798,79 +2823,79 @@
         <v>70</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2884,10 +2909,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="12" t="s">
@@ -2897,178 +2922,178 @@
         <v>85</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>245</v>
-      </c>
       <c r="D19" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3082,13 +3107,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>89</v>
@@ -3097,13 +3122,13 @@
         <v>90</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3117,28 +3142,28 @@
         <v>31</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3152,26 +3177,26 @@
         <v>2</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3185,7 +3210,7 @@
         <v>24</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>10</v>
@@ -3198,13 +3223,13 @@
         <v>92</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3218,7 +3243,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>10</v>
@@ -3228,16 +3253,16 @@
         <v>93</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3251,26 +3276,26 @@
         <v>22</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="12" t="s">
-        <v>95</v>
+        <v>267</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3284,26 +3309,26 @@
         <v>26</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="I26" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3317,257 +3342,257 @@
         <v>9</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="D28" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>250</v>
-      </c>
       <c r="D29" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>202</v>
-      </c>
       <c r="C31" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>239</v>
-      </c>
       <c r="D32" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>108</v>
-      </c>
       <c r="D33" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3581,10 +3606,10 @@
         <v>28</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="12" t="s">
@@ -3594,46 +3619,79 @@
         <v>87</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="D36" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3669,163 +3727,163 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>64</v>
@@ -3834,13 +3892,13 @@
         <v>88</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>66</v>
@@ -3851,158 +3909,158 @@
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
